--- a/Web Scraping/repen.xlsx
+++ b/Web Scraping/repen.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -540,12 +540,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -713,24 +713,24 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bekijk AH Praliné bloc wit</t>
+          <t>Bekijk AH Reep melk hazelnoot rozijn</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -750,24 +750,24 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bekijk AH Reep melk hazelnoot rozijn</t>
+          <t>Bekijk AH Praliné bloc wit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -824,24 +824,24 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bekijk AH Reep melk hazelnoot rozijn</t>
+          <t>Bekijk AH Speculaas witte chocolade crunchy</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bekijk AH Reep melkchocolade dubbel karamel</t>
+          <t>Bekijk AH Reep melk hazelnoot rozijn</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -898,29 +898,29 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bekijk AH Speculaas witte chocolade crunchy</t>
+          <t>Bekijk AH Reep melkchocolade dubbel karamel</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -972,29 +972,29 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bekijk AH Reep melkchocolade cookes &amp; cream</t>
+          <t>Bekijk AH Vegan karamel zeezout reep</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>190 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1009,29 +1009,29 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bekijk AH Reep melkchocolade pinda karamel</t>
+          <t>Bekijk AH Cookies cream melkchocolade crunchy</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>190 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1046,29 +1046,29 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bekijk AH Vegan karamel zeezout reep</t>
+          <t>Bekijk AH Reep melkchocolade cookes &amp; cream</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>190 g</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1083,29 +1083,29 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bekijk AH Cookies cream melkchocolade crunchy</t>
+          <t>Bekijk AH Reep melkchocolade pinda karamel</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>190 g</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -1428,17 +1428,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -1465,17 +1465,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -1539,17 +1539,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -1576,17 +1576,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1601,29 +1601,29 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Bekijk Delicata Reep witte chocolade met vanille aroma</t>
+          <t>Bekijk Delicata Reep krachtige pure Belgische chocolade</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -1675,14 +1675,14 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Bekijk Delicata Reep krachtige pure Belgische chocolade</t>
+          <t>Bekijk Delicata Reep melkchocolade hazelnoot</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -1786,14 +1786,14 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bekijk Delicata Reep melkchocolade hazelnoot</t>
+          <t>Bekijk Delicata Reep crispy witte chocolade</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1823,29 +1823,29 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Bekijk Delicata Reep crispy witte chocolade</t>
+          <t>Bekijk Delicata Reep witte chocolade met vanille aroma</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -1897,29 +1897,29 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Bekijk Delicata Reep melkchocolade</t>
+          <t>Bekijk Delicata Reep puur fleur de sel 75% cacao</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>400 g</t>
+          <t>100 g</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1934,24 +1934,24 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bekijk Delicata Reep puur fleur de sel 75% cacao</t>
+          <t>Bekijk Delicata Reep pure chocolade hazelnoot</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bekijk Delicata Reep pure chocolade hazelnoot</t>
+          <t>Bekijk Delicata Reep melkchocolade</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>400 g</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -2020,17 +2020,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>100 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -2230,14 +2230,14 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Bekijk Delicata Reep pure chocolade walnoot vijg</t>
+          <t>Bekijk Delicata Reep pure chocolade sinaasappel amandel</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2267,14 +2267,14 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Bekijk Delicata Reep pure chocolade sinaasappel amandel</t>
+          <t>Bekijk Delicata Reep pure chocolade walnoot vijg</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2304,29 +2304,29 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Bekijk Delicata Reep pure chocolade amandel kokos</t>
+          <t>Bekijk Delicata Reep puur gember limoen</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>90 g</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2341,29 +2341,29 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Bekijk Delicata Reep puur gember limoen</t>
+          <t>Bekijk Delicata Reep pure chocolade amandel kokos</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>90 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
@@ -2452,29 +2452,29 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Bekijk Delicata Reep karamel zeezout cheesecakesmaak</t>
+          <t>Bekijk Delicata Reep pure chocolade balsamico &amp; aarbei</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>150 g</t>
+          <t>90 g</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2489,14 +2489,14 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Bekijk Delicata Reep pinda pretzel karamel melkchocolade</t>
+          <t>Bekijk Delicata Reep karamel zeezout cheesecakesmaak</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2526,14 +2526,14 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Bekijk Delicata Reep pure chocolade balsamico &amp; aarbei</t>
+          <t>Bekijk Delicata Reep pure chocolade viooltjes &amp; bosbes</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2563,14 +2563,14 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Bekijk Delicata Reep pure chocolade viooltjes &amp; bosbes</t>
+          <t>Bekijk Delicata Reep espresso &amp; karamel pure chocolade</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2600,14 +2600,14 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Bekijk Delicata Reep espresso &amp; karamel pure chocolade</t>
+          <t>Bekijk Delicata Reep pure chocolade lavendel &amp; karamel</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2637,29 +2637,29 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Bekijk Delicata Reep pure chocolade lavendel &amp; karamel</t>
+          <t>Bekijk Delicata Reep pinda pretzel karamel melkchocolade</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>90 g</t>
+          <t>150 g</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
     </row>
